--- a/TABLES.xlsx
+++ b/TABLES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PROFESORADO - USABANA\CONVERSIÓN DE ENERGÍAS 2023-2\COMBUSTION CODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justs\Documents\F_Study\SS\2025\MATLAB\myrepos\flametemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB7BD4-AF2C-49AD-B5AB-D0343D7AAD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47EC76-C78C-417C-AE2F-787E9E78B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H°" sheetId="7" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>T (k)</t>
-  </si>
-  <si>
     <t>P (kpa)</t>
   </si>
   <si>
@@ -155,12 +152,15 @@
   <si>
     <t>500. - 1700.</t>
   </si>
+  <si>
+    <t>T (C)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,16 +558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,7 +583,7 @@
         <v>226730</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +591,7 @@
         <v>-285830</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +599,7 @@
         <v>-235310</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,7 +607,7 @@
         <v>-277690</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -615,7 +615,7 @@
         <v>-200670</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,7 +623,7 @@
         <v>-238660</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -631,7 +631,7 @@
         <v>-45900</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,7 +639,7 @@
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -647,7 +647,7 @@
         <v>-126150</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -663,7 +663,7 @@
         <v>-393520</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -671,7 +671,7 @@
         <v>-291010</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -679,7 +679,7 @@
         <v>-84400</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -687,7 +687,7 @@
         <v>52400</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -703,7 +703,7 @@
         <v>218000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -711,7 +711,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -719,7 +719,7 @@
         <v>-74850</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -727,7 +727,7 @@
         <v>-110530</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -743,7 +743,7 @@
         <v>472680</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -751,7 +751,7 @@
         <v>-208450</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -759,7 +759,7 @@
         <v>-249950</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -775,7 +775,7 @@
         <v>249180</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -783,7 +783,7 @@
         <v>-136110</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -791,7 +791,7 @@
         <v>-104700</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -799,7 +799,7 @@
         <v>20410</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -807,7 +807,7 @@
         <v>-241830</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -825,20 +825,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>35</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>40</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>55</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>60</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>65</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>70</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>75</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>80</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>85</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>90</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>95</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>105</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>110</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>115</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>120</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>125</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>135</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>140</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>145</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>150</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>155</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>160</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>165</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>170</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>175</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>180</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>185</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>190</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>195</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>200</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>204.85000000000002</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>1724.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>209.85000000000002</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1907.7</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>214.85000000000002</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>2105.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>219.85000000000002</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>2319.6</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>224.85000000000002</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>229.85000000000002</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>2797.1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>234.85000000000002</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>3062.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>239.85000000000002</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>244.85000000000002</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>3651.2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>249.85000000000002</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>3976.2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>254.85000000000002</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>4322.8999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>259.85000000000002</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>4692.3</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>264.85000000000002</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>5085.3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>269.85000000000002</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>274.85000000000002</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>5946.4</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>279.85000000000002</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>6416.6</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>284.85000000000002</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>6914.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>289.85000000000002</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>7441.8</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>294.85000000000002</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>299.85000000000002</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>8587.9</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>304.85000000000002</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>9209.4</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>309.85000000000002</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>9865</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>314.85000000000002</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>319.85000000000002</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>11284</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>324.85000000000002</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>12051</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>329.85</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>334.85</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>13707</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>339.85</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>14601</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>344.85</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>15541</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>349.85</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>16529</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>354.85</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>17570</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>359.85</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>18666</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>364.85</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>19822</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>369.85</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>21044</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>373.80000000000007</v>
       </c>
@@ -1542,25 +1542,25 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="D2" s="9"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>220</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="D3" s="9"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>230</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="D4" s="9"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>240</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>250</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="D6" s="9"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>260</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="D7" s="9"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>270</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="D8" s="9"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>280</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="D9" s="9"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>290</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>298</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>300</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>310</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>320</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>330</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>340</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>350</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>360</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>370</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>380</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>390</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>400</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>410</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>420</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>430</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>440</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="C26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>450</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="C27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>460</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="C28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>470</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>480</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>490</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>500</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>510</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="C33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>520</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="C34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>530</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="C35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>540</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="C36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>550</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="C37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>560</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="C38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>570</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="C39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>580</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="C40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>590</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="C41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>600</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>17563</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>610</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>17864</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>620</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>18166</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>630</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>18468</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>640</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>18772</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>650</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>19075</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>660</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>19380</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>670</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>19685</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>680</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>19991</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>690</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>20297</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>700</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>20604</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>710</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>20912</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>720</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>21220</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>730</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>21529</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>740</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>21839</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>750</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>22149</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>760</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>22460</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>770</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>22772</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>780</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>23085</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>790</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>23398</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>800</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>23714</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>810</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>24027</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>820</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>24342</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>830</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>24658</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>840</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>24974</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>850</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>25292</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>860</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>25610</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>870</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>25928</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>880</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>26248</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>890</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>26568</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>900</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>26890</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>910</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>27210</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>920</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>27532</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>930</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>27854</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>940</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>28178</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>950</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>28501</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>960</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>28826</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>970</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>29151</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>980</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>29476</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>990</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>29803</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="14">
         <v>1000</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="C82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>1020</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="C83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="14">
         <v>1040</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="C84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
         <v>1060</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="C85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14">
         <v>1080</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="C86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="14">
         <v>1100</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="C87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="14">
         <v>1120</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="C88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="14">
         <v>1140</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="C89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="14">
         <v>1160</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="C90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>1180</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="C91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14">
         <v>1200</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="C92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14">
         <v>1220</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="C93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14">
         <v>1240</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="C94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="14">
         <v>1260</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="C95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="14">
         <v>1280</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="C96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>1300</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="C97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>1320</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="C98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>1340</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="C99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>1360</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="C100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>1380</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="C101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14">
         <v>1400</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="C102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
         <v>1420</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="C103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="14">
         <v>1440</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="C104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
         <v>1460</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="C105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="14">
         <v>1480</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="C106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14">
         <v>1500</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="C107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
         <v>1520</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="C108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14">
         <v>1540</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="C109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
         <v>1560</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="C110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14">
         <v>1580</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="C111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="14">
         <v>1600</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="C112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="14">
         <v>1620</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="C113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="14">
         <v>1640</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="C114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14">
         <v>1660</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="C115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>1680</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="C116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
         <v>1700</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="C117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>1720</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="C118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="14">
         <v>1740</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="C119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1760</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>56227</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1780</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>56938</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1800</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>57651</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1820</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>58363</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1840</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>59075</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1860</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>59790</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1880</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>60504</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1900</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>61220</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1920</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>61936</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1940</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>62654</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1960</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>63381</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1980</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>64090</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2000</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>64810</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2050</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>66612</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2100</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>68417</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2150</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>70226</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2200</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>72040</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2250</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>73856</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2300</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>75676</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2350</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>77496</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2400</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>79320</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2450</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>81149</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2500</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>82981</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2550</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>84814</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2600</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>86650</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2650</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>88488</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2700</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>90328</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2750</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>92171</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2800</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>94014</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2850</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>95859</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2900</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>97705</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2950</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>99556</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>3000</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>101407</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>3050</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>103260</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>3100</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>105115</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>3150</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>106972</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>3200</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>108830</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>3250</v>
       </c>
@@ -2986,25 +2986,25 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="D2" s="9"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>220</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="D3" s="9"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>230</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="D4" s="9"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>240</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>250</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="D6" s="9"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>260</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="D7" s="9"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>270</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="D8" s="9"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>280</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="D9" s="9"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>290</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>298</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>300</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>310</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>320</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>330</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>340</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>350</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>360</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>370</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>380</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>390</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>400</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>410</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>420</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>430</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>440</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="C26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>450</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="C27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>460</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="C28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>470</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="C29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>480</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>490</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>500</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>510</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="C33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>520</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="C34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>530</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="C35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>540</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="C36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>550</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="C37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>560</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="C38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>570</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="C39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>580</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="C40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>590</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="C41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>600</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>17929</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>610</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>620</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>18572</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>630</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>18895</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>640</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>19219</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>650</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>19544</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>660</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>19870</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>670</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>20197</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>680</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>20524</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>690</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>20854</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>700</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>21184</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>710</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>21514</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>720</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>21845</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>730</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>22177</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>740</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>22510</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>750</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>22844</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>760</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>23178</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>770</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>23513</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>780</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>23850</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>790</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>24186</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>800</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>24523</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>810</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>24861</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>820</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>25199</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>830</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>25537</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>840</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>25877</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>850</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>26218</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>860</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>26559</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>870</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>26899</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>880</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>27242</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>890</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>27584</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>900</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>27928</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>910</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>28272</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>920</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>28616</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>930</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>28960</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>940</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>29306</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>950</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>29652</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>960</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>29999</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>970</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>30345</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>980</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>30692</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>990</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>31041</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="14">
         <v>1000</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="C82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>1020</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="C83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="14">
         <v>1040</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="C84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
         <v>1060</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="C85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14">
         <v>1080</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="C86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="14">
         <v>1100</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="C87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="14">
         <v>1120</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="C88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="14">
         <v>1140</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="C89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="14">
         <v>1160</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="C90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>1180</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="C91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14">
         <v>1200</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="C92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14">
         <v>1220</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="C93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14">
         <v>1240</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="C94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="14">
         <v>1260</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="C95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="14">
         <v>1280</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="C96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>1300</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="C97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>1320</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="C98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>1340</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="C99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>1360</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="C100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>1380</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="C101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14">
         <v>1400</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="C102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
         <v>1420</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="C103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="14">
         <v>1440</v>
       </c>
@@ -3962,7 +3962,7 @@
       <c r="C104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
         <v>1460</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="C105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="14">
         <v>1480</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="C106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14">
         <v>1500</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="C107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
         <v>1520</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="C108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14">
         <v>1540</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="C109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
         <v>1560</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="C110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14">
         <v>1580</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="C111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="14">
         <v>1600</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="C112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="14">
         <v>1620</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="C113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="14">
         <v>1640</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="C114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14">
         <v>1660</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="C115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>1680</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="C116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
         <v>1700</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="C117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>1720</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="C118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="14">
         <v>1740</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="C119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1760</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>58880</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1780</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>59624</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1800</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>60371</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1820</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>61118</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1840</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>61866</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1860</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>62616</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1880</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>63365</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1900</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>64116</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1920</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>64868</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1940</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>65620</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1960</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>66374</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1980</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>67127</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2000</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>67881</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2050</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>69772</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2100</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>71668</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2150</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>73573</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2200</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>75484</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2250</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>77397</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2300</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>79316</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2350</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>81243</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2400</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>83174</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2450</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>85112</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2500</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>87057</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2550</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>89004</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2600</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>90956</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2650</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>92916</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2700</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>94881</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2750</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>96852</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2800</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>98826</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2850</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>100808</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2900</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>102793</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2950</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>104785</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>3000</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>106780</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>3050</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>108778</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>3100</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>110784</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>3150</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>112795</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>3200</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>114809</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>3250</v>
       </c>
@@ -4429,23 +4429,23 @@
       <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="C2" s="9"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>220</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="C3" s="10"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>230</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="C4" s="10"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>240</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="C5" s="10"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>250</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="C6" s="10"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>260</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="C7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>270</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="C8" s="10"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>280</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="C9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>290</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>298</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>300</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>310</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>320</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>330</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>340</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>350</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>360</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>370</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>380</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>390</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>400</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>410</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>420</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>430</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>440</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="C26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>450</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="C27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>460</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="C28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>470</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="C29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>480</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>490</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>500</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>510</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="C33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>520</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="C34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>530</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="C35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>540</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="C36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>550</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="C37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>560</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="C38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>570</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="C39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>580</v>
       </c>
@@ -4835,7 +4835,7 @@
       <c r="C40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>590</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="C41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>600</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>22280</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>610</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>22754</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>620</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>23231</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>630</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>23709</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>640</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>24190</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>650</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>24674</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>660</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>25160</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>670</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>25648</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>680</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>26138</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>690</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>26631</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>700</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>27125</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>710</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>27622</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>720</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>28121</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>730</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>28622</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>740</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>29124</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>750</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>760</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>20135</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>770</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>30644</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>780</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>31154</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>790</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>31665</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>800</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>32179</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>810</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>32694</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>820</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>33212</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>830</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>33730</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>840</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>34251</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>850</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>34773</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>860</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>35296</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>870</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>35821</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>880</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>890</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>36876</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>900</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>37405</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>910</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>37935</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>920</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>930</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>940</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>950</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>960</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>970</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>980</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>990</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="14">
         <v>1000</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="C82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>1020</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="C83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="14">
         <v>1040</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="C84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
         <v>1060</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="C85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14">
         <v>1080</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="C86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="14">
         <v>1100</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="C87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="14">
         <v>1120</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="C88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="14">
         <v>1140</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="C89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="14">
         <v>1160</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="C90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>1180</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="C91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14">
         <v>1200</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="C92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14">
         <v>1220</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="C93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14">
         <v>1240</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="C94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="14">
         <v>1260</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="C95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="14">
         <v>1280</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="C96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>1300</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="C97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>1320</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="C98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>1340</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="C99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>1360</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="C100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>1380</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="C101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14">
         <v>1400</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="C102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
         <v>1420</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="C103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="14">
         <v>1440</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="C104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
         <v>1460</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="C105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="14">
         <v>1480</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="C106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14">
         <v>1500</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="C107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
         <v>1520</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="C108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14">
         <v>1540</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="C109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
         <v>1560</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="C110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14">
         <v>1580</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="C111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="14">
         <v>1600</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="C112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="14">
         <v>1620</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="C113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="14">
         <v>1640</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="C114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14">
         <v>1660</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="C115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>1680</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="C116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
         <v>1700</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="C117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>1720</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="C118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="14">
         <v>1740</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="C119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1760</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>86420</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1780</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>87612</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1800</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>88806</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1820</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1840</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>91196</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1860</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>92394</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1880</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>93593</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1900</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>94793</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1920</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>95995</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1940</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>97197</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1960</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>98401</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1980</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>99606</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2000</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>100804</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2050</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>103835</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2100</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>106864</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2150</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>109898</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2200</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>112939</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2250</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>115984</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2300</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>119035</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2350</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>122091</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2400</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>125152</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2450</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>128219</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2500</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>131290</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2550</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>134368</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2600</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>137449</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2650</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>140533</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2700</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>143620</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2750</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>146713</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2800</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>149808</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2850</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>152908</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2900</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>156009</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2950</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>159117</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>3000</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>162226</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>3050</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>165341</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>3100</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>168456</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>3150</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>171576</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>3200</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>174695</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>3250</v>
       </c>
@@ -5863,23 +5863,23 @@
       <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="C2" s="9"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>220</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="C3" s="10"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>230</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="C4" s="10"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>240</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="C5" s="10"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>250</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="C6" s="10"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>260</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="C7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>270</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="C8" s="10"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>280</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="C9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>290</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>298</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>300</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>310</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>320</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>330</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>340</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>350</v>
       </c>
@@ -6039,7 +6039,7 @@
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>360</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>370</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>380</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>390</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>400</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>410</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>420</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>430</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>440</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="C26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>450</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="C27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>460</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="C28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>470</v>
       </c>
@@ -6159,7 +6159,7 @@
       <c r="C29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>480</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>490</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>500</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>510</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="C33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>520</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="C34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>530</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="C35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>540</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="C36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>550</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="C37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>560</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="C38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>570</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="C39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>580</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="C40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>590</v>
       </c>
@@ -6279,7 +6279,7 @@
       <c r="C41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>600</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>17611</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>610</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>17915</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>620</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>18221</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>630</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>18527</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>640</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>18833</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>650</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>19141</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>660</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>19449</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>670</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>19758</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>680</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>20068</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>690</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>20378</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>700</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>710</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>21002</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>720</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>21315</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>730</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>21628</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>740</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>21943</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>750</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>22258</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>760</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>22573</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>770</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>22890</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>780</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>23208</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>790</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>23526</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>800</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>23844</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>810</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>24164</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>820</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>24483</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>830</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>24803</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>840</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>25124</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>850</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>25446</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>860</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>25768</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>870</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>26091</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>880</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>26415</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>890</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>26740</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>900</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>27066</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>910</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>27392</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>920</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>27719</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>930</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>28046</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>940</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>28375</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>950</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>28703</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>960</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>29033</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>970</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>29362</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>980</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>29693</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>990</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>30024</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="14">
         <v>1000</v>
       </c>
@@ -6609,7 +6609,7 @@
       <c r="C82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>1020</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="C83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="14">
         <v>1040</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="C84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
         <v>1060</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="C85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14">
         <v>1080</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="C86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="14">
         <v>1100</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="C87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="14">
         <v>1120</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="C88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="14">
         <v>1140</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="C89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="14">
         <v>1160</v>
       </c>
@@ -6689,7 +6689,7 @@
       <c r="C90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>1180</v>
       </c>
@@ -6699,7 +6699,7 @@
       <c r="C91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14">
         <v>1200</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="C92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14">
         <v>1220</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="C93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14">
         <v>1240</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="C94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="14">
         <v>1260</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="C95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="14">
         <v>1280</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="C96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>1300</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="C97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>1320</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="C98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>1340</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="C99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>1360</v>
       </c>
@@ -6789,7 +6789,7 @@
       <c r="C100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>1380</v>
       </c>
@@ -6799,7 +6799,7 @@
       <c r="C101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14">
         <v>1400</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="C102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
         <v>1420</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="C103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="14">
         <v>1440</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="C104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
         <v>1460</v>
       </c>
@@ -6839,7 +6839,7 @@
       <c r="C105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="14">
         <v>1480</v>
       </c>
@@ -6849,7 +6849,7 @@
       <c r="C106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14">
         <v>1500</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="C107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
         <v>1520</v>
       </c>
@@ -6869,7 +6869,7 @@
       <c r="C108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14">
         <v>1540</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="C109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
         <v>1560</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="C110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14">
         <v>1580</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="C111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="14">
         <v>1600</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="C112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="14">
         <v>1620</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="C113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="14">
         <v>1640</v>
       </c>
@@ -6929,7 +6929,7 @@
       <c r="C114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14">
         <v>1660</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="C115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>1680</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="C116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
         <v>1700</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="C117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>1720</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="C118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="14">
         <v>1740</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="C119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1760</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>56756</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1780</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>57473</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1800</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>58191</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1820</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>58910</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1840</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>59629</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1860</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>60351</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1880</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>61072</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1900</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>61794</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1920</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>62516</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1940</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>63238</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1960</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>63961</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1980</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>64684</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2000</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>65408</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2050</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>67224</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2100</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>69044</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2150</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>70864</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2200</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>72688</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2250</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>74516</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2300</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>76345</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2350</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>78178</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2400</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>80015</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2450</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>81852</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2500</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>83692</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2550</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>85537</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2600</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>87383</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2650</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>89230</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2700</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>91077</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2750</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>92930</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2800</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>94784</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2850</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>96639</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2900</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>98495</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2950</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>100352</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>3000</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>102210</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>3050</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>104073</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>3100</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>105939</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>3150</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>107802</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>3200</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>109667</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>3250</v>
       </c>
@@ -7296,25 +7296,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -7325,7 +7325,7 @@
       <c r="D2" s="9"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>260</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="D3" s="9"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>270</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="D4" s="9"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>280</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>290</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="D6" s="9"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>298</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="D7" s="9"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>300</v>
       </c>
@@ -7391,7 +7391,7 @@
       <c r="D8" s="9"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>320</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="D9" s="9"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>340</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>360</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>380</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>400</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>420</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>440</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>460</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>480</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>500</v>
       </c>
@@ -7492,7 +7492,7 @@
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>520</v>
       </c>
@@ -7502,7 +7502,7 @@
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>560</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>600</v>
       </c>
@@ -7522,7 +7522,7 @@
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>640</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>680</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>720</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>760</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>800</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="C26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>840</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="C27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>880</v>
       </c>
@@ -7592,7 +7592,7 @@
       <c r="C28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>920</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="C29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>960</v>
       </c>
@@ -7612,7 +7612,7 @@
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>1000</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>1040</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>1080</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="C33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>1120</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="C34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>1160</v>
       </c>
@@ -7662,7 +7662,7 @@
       <c r="C35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>1200</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="C36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>1240</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="C37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>1280</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="C38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>1320</v>
       </c>
@@ -7702,7 +7702,7 @@
       <c r="C39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>1360</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="C40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>1400</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="C41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1440</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>1480</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>1520</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1560</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>46683</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1600</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>47990</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1640</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>49303</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1680</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>50622</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1720</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>51947</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>1760</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>53279</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1800</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>54618</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1840</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>55962</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1880</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>57311</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>1920</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>58668</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>1960</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>60031</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2000</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2050</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>63119</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2100</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>64847</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2150</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>66584</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2200</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>68328</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2250</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>70080</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2300</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>71839</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2350</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>73608</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2400</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>75383</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2450</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>77168</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2500</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>78960</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2550</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>80755</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2600</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>82558</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2650</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>84368</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2700</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>86186</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2750</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>88008</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2800</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>89838</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2850</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>91671</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2900</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>93512</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2950</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>95358</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>3000</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>97211</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>3050</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>99065</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>3100</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>100926</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>3150</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>102793</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>3200</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>104667</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>3250</v>
       </c>
@@ -8051,27 +8051,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="C2" s="9"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>220</v>
       </c>
@@ -8091,7 +8091,7 @@
       <c r="C3" s="10"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>230</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="C4" s="10"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>240</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="C5" s="10"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>250</v>
       </c>
@@ -8121,7 +8121,7 @@
       <c r="C6" s="10"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>260</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="C7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>270</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="C8" s="10"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>280</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="C9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>290</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>298</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="C11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>300</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="C12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>310</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="C13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>320</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="C14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>330</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="C15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>340</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="C16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>350</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="C17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>360</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="C18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>370</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="C19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>380</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="C20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>390</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="C21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>400</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>410</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>420</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>430</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>440</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="C26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>450</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="C27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>460</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="C28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>470</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="C29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>480</v>
       </c>
@@ -8361,7 +8361,7 @@
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>490</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>500</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>510</v>
       </c>
@@ -8391,7 +8391,7 @@
       <c r="C33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>520</v>
       </c>
@@ -8401,7 +8401,7 @@
       <c r="C34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>530</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="C35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>540</v>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="C36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>550</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="C37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>560</v>
       </c>
@@ -8441,7 +8441,7 @@
       <c r="C38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>570</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="C39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>580</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="C40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>590</v>
       </c>
@@ -8471,7 +8471,7 @@
       <c r="C41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>600</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>20402</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>610</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>20765</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>620</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>21130</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>630</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>21495</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>640</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>21862</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>650</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>22230</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>660</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>670</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>22970</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>680</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>23342</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>690</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>23714</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>700</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>24088</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>710</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>24464</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>720</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>24840</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>730</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>25218</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>740</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>25597</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>750</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>25977</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>760</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>26358</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>770</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>26741</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>780</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>27125</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>790</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>27510</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>800</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>27896</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>810</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>28284</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>820</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>28672</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>830</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>29062</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>840</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>29454</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>850</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>29846</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>860</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>30240</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>870</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>30635</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>880</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>31032</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>890</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>31429</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>900</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>31828</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>910</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>32228</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>920</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>32629</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>930</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>33032</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>940</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>33436</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>950</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>33841</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>960</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>34247</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>970</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>34653</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>980</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>35061</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>990</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>35472</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="14">
         <v>1000</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="C82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>1020</v>
       </c>
@@ -8811,7 +8811,7 @@
       <c r="C83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="14">
         <v>1040</v>
       </c>
@@ -8821,7 +8821,7 @@
       <c r="C84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
         <v>1060</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="C85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14">
         <v>1080</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="C86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="14">
         <v>1100</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="C87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="14">
         <v>1120</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="C88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="14">
         <v>1140</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="C89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="14">
         <v>1160</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="C90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>1180</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="C91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14">
         <v>1200</v>
       </c>
@@ -8901,7 +8901,7 @@
       <c r="C92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14">
         <v>1220</v>
       </c>
@@ -8911,7 +8911,7 @@
       <c r="C93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14">
         <v>1240</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="C94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="14">
         <v>1260</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="C95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="14">
         <v>1280</v>
       </c>
@@ -8941,7 +8941,7 @@
       <c r="C96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>1300</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="C97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>1320</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="C98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>1340</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="C99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>1360</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="C100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>1380</v>
       </c>
@@ -8991,7 +8991,7 @@
       <c r="C101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14">
         <v>1400</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="C102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
         <v>1420</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="C103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="14">
         <v>1440</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="C104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
         <v>1460</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="C105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="14">
         <v>1480</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="C106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14">
         <v>1500</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="C107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
         <v>1520</v>
       </c>
@@ -9061,7 +9061,7 @@
       <c r="C108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14">
         <v>1540</v>
       </c>
@@ -9071,7 +9071,7 @@
       <c r="C109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
         <v>1560</v>
       </c>
@@ -9081,7 +9081,7 @@
       <c r="C110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14">
         <v>1580</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="C111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="14">
         <v>1600</v>
       </c>
@@ -9101,7 +9101,7 @@
       <c r="C112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="14">
         <v>1620</v>
       </c>
@@ -9111,7 +9111,7 @@
       <c r="C113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="14">
         <v>1640</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="C114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14">
         <v>1660</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="C115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>1680</v>
       </c>
@@ -9141,7 +9141,7 @@
       <c r="C116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
         <v>1700</v>
       </c>
@@ -9151,7 +9151,7 @@
       <c r="C117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>1720</v>
       </c>
@@ -9161,7 +9161,7 @@
       <c r="C118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="14">
         <v>1740</v>
       </c>
@@ -9171,7 +9171,7 @@
       <c r="C119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1760</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>70535</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1780</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>71523</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1800</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>72513</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1820</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>73507</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1840</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>74506</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1860</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>75506</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1880</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>76511</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1900</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>77517</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1920</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>78527</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1940</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>79540</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1960</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>80555</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1980</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>81573</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2000</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>82593</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2050</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>85156</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2100</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>87735</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2150</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>90330</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2200</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>92940</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2250</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>95562</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2300</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>98199</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2350</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>100846</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2400</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>103508</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2450</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>106183</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2500</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>108868</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2550</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>111565</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2600</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>114273</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2650</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>116991</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2700</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>119717</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2750</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>122453</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2800</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>125198</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2850</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>127952</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2900</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>130717</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2950</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>133486</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>3000</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>136264</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>3050</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>139051</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>3100</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>141846</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>3150</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>144648</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>3200</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>147457</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>3250</v>
       </c>
@@ -9481,6 +9481,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5FAC7B9B9E0CB4A903CEED1CBC615E3" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb1bb10a1d01c6976de24c7637b01140">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14271499-dc23-441d-9f34-3008a572beb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04a8d3c26fa8d21c8ab80732c41d1c97" ns2:_="">
     <xsd:import namespace="14271499-dc23-441d-9f34-3008a572beb4"/>
@@ -9648,12 +9654,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9664,13 +9664,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FAAC516-8A7C-4D74-86E9-7FED8643E53D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11C2F63-23F4-4484-AC1E-F42CAE46132F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11C2F63-23F4-4484-AC1E-F42CAE46132F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FAAC516-8A7C-4D74-86E9-7FED8643E53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="14271499-dc23-441d-9f34-3008a572beb4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A15346A-E490-4D6A-AA6A-6FCB822C3C84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A15346A-E490-4D6A-AA6A-6FCB822C3C84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>